--- a/00_management/反復計画書_05.xlsx
+++ b/00_management/反復計画書_05.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_C297DBBD8633BEE70F08A3E7A267324D82DE65A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B53CA938-5E39-4905-B717-DAF05B0DCD1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FD65B-B15A-4014-8839-2F93AE7A8EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="11730" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復計画書 (更新)" sheetId="5" r:id="rId1"/>
@@ -17,9 +17,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -545,7 +543,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1096,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,6 +1274,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,10 +1619,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
@@ -1630,7 +1631,7 @@
     <col min="5" max="5" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1642,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="58"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -1650,7 +1651,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="58"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1659,14 +1660,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="58"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="46"/>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -1696,7 +1697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="46"/>
       <c r="B7" s="14" t="s">
         <v>12</v>
@@ -1711,7 +1712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="46"/>
       <c r="B8" s="14" t="s">
         <v>16</v>
@@ -1726,7 +1727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1">
+    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="46"/>
       <c r="B9" s="14" t="s">
         <v>19</v>
@@ -1741,7 +1742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="144.75" customHeight="1">
+    <row r="10" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="46"/>
       <c r="B10" s="14" t="s">
         <v>23</v>
@@ -1756,7 +1757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="53" t="s">
         <v>27</v>
@@ -1765,7 +1766,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="55"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -1775,10 +1776,12 @@
       <c r="C12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="35" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>12</v>
@@ -1786,10 +1789,12 @@
       <c r="C13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>16</v>
@@ -1797,10 +1802,12 @@
       <c r="C14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="153" customHeight="1">
+    <row r="15" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
@@ -1808,10 +1815,12 @@
       <c r="C15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="60" t="s">
+        <v>25</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="39.75" customHeight="1">
+    <row r="16" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>27</v>
@@ -1842,7 +1851,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="20.125" customWidth="1"/>
@@ -1850,7 +1859,7 @@
     <col min="4" max="5" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1870,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="58"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -1870,7 +1879,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="58"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -1879,14 +1888,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +1910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -1916,7 +1925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>12</v>
@@ -1931,7 +1940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>16</v>
@@ -1946,7 +1955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1">
+    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>19</v>
@@ -1961,7 +1970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="144.75" customHeight="1">
+    <row r="10" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>23</v>
@@ -1976,7 +1985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" thickBot="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
         <v>27</v>
@@ -1987,7 +1996,7 @@
       </c>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1998,7 +2007,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>12</v>
@@ -2007,7 +2016,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>16</v>
@@ -2016,7 +2025,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="93" customHeight="1">
+    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
@@ -2025,7 +2034,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>27</v>
@@ -2054,7 +2063,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -2063,7 +2072,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
@@ -2074,7 +2083,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="58"/>
       <c r="B2" s="4" t="s">
         <v>40</v>
@@ -2083,7 +2092,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="58"/>
       <c r="B3" s="4" t="s">
         <v>41</v>
@@ -2092,14 +2101,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
@@ -2114,7 +2123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>8</v>
@@ -2129,7 +2138,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>12</v>
@@ -2144,7 +2153,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>16</v>
@@ -2159,7 +2168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>19</v>
@@ -2174,7 +2183,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1">
+    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>23</v>
@@ -2189,7 +2198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>27</v>
@@ -2198,7 +2207,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
@@ -2209,7 +2218,7 @@
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>12</v>
@@ -2218,7 +2227,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>16</v>
@@ -2227,7 +2236,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
@@ -2236,7 +2245,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>27</v>
@@ -2258,9 +2267,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2448,19 +2460,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2484,9 +2492,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/反復計画書_05.xlsx
+++ b/00_management/反復計画書_05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8FD65B-B15A-4014-8839-2F93AE7A8EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D110792-167F-4CAE-93CF-EFCC16533FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -533,6 +533,21 @@
     <rPh sb="92" eb="94">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/11(午後)</t>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/15（午前）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1266,6 +1281,9 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1274,9 +1292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1618,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C6887-0833-42C2-A4C4-578D3686BBBC}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1632,7 +1647,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1643,7 +1658,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="58"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1667,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1661,7 +1676,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="58"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1694,7 +1709,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1709,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1724,7 +1739,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1815,7 +1830,7 @@
       <c r="C15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="57" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="15"/>
@@ -1838,7 +1853,7 @@
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1860,7 +1875,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1871,7 +1886,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="58"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1880,7 +1895,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1889,7 +1904,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2073,7 +2088,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2084,7 +2099,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58"/>
+      <c r="A2" s="59"/>
       <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
@@ -2093,7 +2108,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="58"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="4" t="s">
         <v>41</v>
       </c>
@@ -2102,7 +2117,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2267,12 +2282,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2460,15 +2472,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2492,10 +2508,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/反復計画書_05.xlsx
+++ b/00_management/反復計画書_05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D110792-167F-4CAE-93CF-EFCC16533FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F36972-4F8A-49ED-A832-DBB2B245F343}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,13 +125,6 @@
 ・予約済みのチケットを確認する</t>
   </si>
   <si>
-    <t>チケット予約システムで
-・予約済みチケットのキャンセルする
-・本人の履歴を見る
-・永続化を追加する
-・ユーザーIDを作成する</t>
-  </si>
-  <si>
     <t>チケット予約システムで購入可能なチケットの種類を増やす</t>
   </si>
   <si>
@@ -548,6 +541,17 @@
   </si>
   <si>
     <t>2日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チケット予約システムで
+・予約済みチケットのキャンセルする
+・本人の履歴を見る
+・永続化を追加する
+・新規アカウントを作成する</t>
+    <rPh sb="51" eb="53">
+      <t>シンキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1633,8 +1637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C6887-0833-42C2-A4C4-578D3686BBBC}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1709,7 +1713,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1724,7 +1728,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1739,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1751,31 +1755,31 @@
         <v>20</v>
       </c>
       <c r="D9" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="46"/>
       <c r="B10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="51" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="52"/>
       <c r="B11" s="53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -1783,13 +1787,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>10</v>
@@ -1802,7 +1806,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>11</v>
@@ -1815,7 +1819,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>17</v>
@@ -1825,23 +1829,23 @@
     <row r="15" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="57" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" s="57" t="s">
-        <v>25</v>
       </c>
       <c r="E15" s="15"/>
     </row>
     <row r="16" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
@@ -1934,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>14</v>
@@ -1949,7 +1953,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>15</v>
@@ -1961,7 +1965,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>17</v>
@@ -1979,41 +1983,41 @@
         <v>20</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>8</v>
@@ -2043,7 +2047,7 @@
     <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2052,7 +2056,7 @@
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -2092,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2101,7 +2105,7 @@
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59"/>
       <c r="B2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -2110,7 +2114,7 @@
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="59"/>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2174,13 +2178,13 @@
         <v>16</v>
       </c>
       <c r="C8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="E8" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2189,34 +2193,34 @@
         <v>19</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -2224,7 +2228,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>8</v>
@@ -2254,7 +2258,7 @@
     <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -2263,7 +2267,7 @@
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -2282,9 +2286,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2472,19 +2479,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2508,9 +2511,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/反復計画書_05.xlsx
+++ b/00_management/反復計画書_05.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F36972-4F8A-49ED-A832-DBB2B245F343}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A605D5-2DF5-4150-8BC3-875C1D6358AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -551,6 +551,28 @@
 ・新規アカウントを作成する</t>
     <rPh sb="51" eb="53">
       <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チケット価格を「大人・子供」の2種類から選択できるように変更する。</t>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オトナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コドモ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1637,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C6887-0833-42C2-A4C4-578D3686BBBC}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1758,7 +1780,7 @@
         <v>53</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2286,12 +2308,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2479,15 +2498,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2511,10 +2534,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/反復計画書_05.xlsx
+++ b/00_management/反復計画書_05.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A605D5-2DF5-4150-8BC3-875C1D6358AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01895C7C-5948-4BF5-A1C6-38CD490AF0E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21435" yWindow="360" windowWidth="26085" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復計画書 (更新)" sheetId="5" r:id="rId1"/>
@@ -555,7 +555,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・チケット価格を「大人・子供」の2種類から選択できるように変更する。</t>
+    <t>・チケット価格を「大人・子供」の2種類から選択できるように変更する。
+・Commandパターンを追加する。</t>
     <rPh sb="5" eb="7">
       <t>カカク</t>
     </rPh>
@@ -573,6 +574,9 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1659,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C6887-0833-42C2-A4C4-578D3686BBBC}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2308,9 +2312,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2498,19 +2505,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2534,9 +2537,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/反復計画書_05.xlsx
+++ b/00_management/反復計画書_05.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01895C7C-5948-4BF5-A1C6-38CD490AF0E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0877BA5F-EC72-4865-8E01-E42985C594BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21435" yWindow="360" windowWidth="26085" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20550" yWindow="540" windowWidth="26085" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復計画書 (更新)" sheetId="5" r:id="rId1"/>
@@ -555,8 +555,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・チケット価格を「大人・子供」の2種類から選択できるように変更する。
-・Commandパターンを追加する。</t>
+    <t xml:space="preserve">・チケット価格を「大人・子供」の2種類から選択できるように変更する。
+・Commandパターンを追加する
+</t>
     <rPh sb="5" eb="7">
       <t>カカク</t>
     </rPh>
@@ -1664,7 +1665,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2312,12 +2313,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2505,15 +2503,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2537,10 +2539,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_management/反復計画書_05.xlsx
+++ b/00_management/反復計画書_05.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0877BA5F-EC72-4865-8E01-E42985C594BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57704801-6158-4D0F-BD21-053C65AC3DC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20550" yWindow="540" windowWidth="26085" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="反復計画書 (更新)" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="58">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -578,6 +578,35 @@
     </rPh>
     <rPh sb="48" eb="50">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/6/15(午前)</t>
+    <rPh sb="11" eb="12">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復計画書(更新)
+WBS&amp;ガントチャート(更新)
+要求仕様書(更新)
+システム分析書(更新)
+設計仕様書(更新)
+テスト計画書(更新)
+テスト済のソースコード(更新)
+開発体験シート（更新）
+KPTによる振り返り結果（更新）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※発表資料(新規作成)：6/15午後実施</t>
+    <rPh sb="16" eb="18">
+      <t>ゴゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -617,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1123,14 +1152,94 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1306,14 +1415,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1323,6 +1426,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1664,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C6887-0833-42C2-A4C4-578D3686BBBC}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,7 +1808,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1689,7 +1819,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +1828,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1837,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1803,14 +1933,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="49"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -1819,13 +1949,15 @@
       <c r="B12" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="63" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
@@ -1835,10 +1967,12 @@
       <c r="C13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="64" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
@@ -1848,10 +1982,12 @@
       <c r="C14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="65" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
@@ -1861,12 +1997,14 @@
       <c r="C15" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>26</v>
@@ -1874,8 +2012,10 @@
       <c r="C16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="67" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1906,7 +2046,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1917,7 +2057,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1926,7 +2066,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1935,7 +2075,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2119,7 +2259,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2130,7 +2270,7 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
@@ -2139,7 +2279,7 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
@@ -2148,7 +2288,7 @@
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -2313,9 +2453,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2503,19 +2646,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2539,9 +2678,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>